--- a/doc/FPGA Program Version.xlsx
+++ b/doc/FPGA Program Version.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angela Salom\Dropbox\CELLS\Diamond\5.- FPGA Programming\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="9360" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="9360" windowHeight="9585"/>
   </bookViews>
   <sheets>
     <sheet name="FPGA Version Advanced Perseus" sheetId="3" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Version</t>
   </si>
@@ -305,12 +310,45 @@
   <si>
     <t>- RFOnState signal: logic inverted -- '1' = OK, '0' = RF Not ready and LLRF goes to standby</t>
   </si>
+  <si>
+    <t>Still when TTL outputs = '0', the level of the corresponding digital PAPA is 5V. It should be '0'</t>
+  </si>
+  <si>
+    <t>2016.10.02.00</t>
+  </si>
+  <si>
+    <t>- RFOnState signal reconverted into RFNotReady. Gpio_input(4) (RFReadyPlant A) and gpio_input(5) (RFReadyPlantB) inverted in GPIO_interface.vhd file before connecting it to "RFNotReady" signal. Now when RFNotReady = 1, LLRF goes to STBY state</t>
+  </si>
+  <si>
+    <t>Bit Files\Perseus_LLRF_DLS_V12.bit</t>
+  </si>
+  <si>
+    <t>Compilation got stucked at phase 4 of routing. Compilation stopped and vhdl files changed to version11. Then compilation was all right</t>
+  </si>
+  <si>
+    <t>PersDLSV13</t>
+  </si>
+  <si>
+    <t>2016.10.25.00</t>
+  </si>
+  <si>
+    <t>Bit Files\Perseus_LLRF_DLS_V13.bit</t>
+  </si>
+  <si>
+    <t>pending: debugging of PLG2 moving manual</t>
+  </si>
+  <si>
+    <t>- RFNotReady signal reconverted to RFOnState. Inversion removed from gpio_interface.vhd and logic corrected in mainprogram
+- 3HzTrigDiag debugging added
+- PhaseRampUp and PhaseRampDw modified to make sure the phase ramping always follows the shorter path between phase at beginning of the ramp and phase at the end of the ramp
+- Tuning reset: number of pulses are equalt to '0' when the movement enable of a plunger is not active. in this way when you re-enable the movement of a plunger, it will not move until you press TuningReset button</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +384,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -414,7 +460,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -441,6 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -715,7 +762,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -725,8 +772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +997,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -988,13 +1036,15 @@
       <c r="E12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="G12" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1009,26 +1059,54 @@
       <c r="E13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2">
+        <v>42646</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="12"/>
+      <c r="G14" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="7">
+        <v>42668</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.91388888888888886</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1237,6 +1315,8 @@
     <hyperlink ref="G10" r:id="rId5"/>
     <hyperlink ref="G11" r:id="rId6"/>
     <hyperlink ref="G12" r:id="rId7"/>
+    <hyperlink ref="G14" r:id="rId8"/>
+    <hyperlink ref="G15" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/FPGA Program Version.xlsx
+++ b/doc/FPGA Program Version.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angela Salom\Dropbox\CELLS\Diamond\5.- FPGA Programming\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="300" windowWidth="9360" windowHeight="9585"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Version</t>
   </si>
@@ -338,10 +333,30 @@
     <t>pending: debugging of PLG2 moving manual</t>
   </si>
   <si>
+    <t>PersDLSV14</t>
+  </si>
+  <si>
+    <t>2016.10.26.00</t>
+  </si>
+  <si>
     <t>- RFNotReady signal reconverted to RFOnState. Inversion removed from gpio_interface.vhd and logic corrected in mainprogram
+- RampIncRate formula updated
+- Timing constraints set back to original
 - 3HzTrigDiag debugging added
 - PhaseRampUp and PhaseRampDw modified to make sure the phase ramping always follows the shorter path between phase at beginning of the ramp and phase at the end of the ramp
 - Tuning reset: number of pulses are equalt to '0' when the movement enable of a plunger is not active. in this way when you re-enable the movement of a plunger, it will not move until you press TuningReset button</t>
+  </si>
+  <si>
+    <t>New settings:
+- add 125: FwMinAmp&amp;PhLoops - mV
+- add 316: Tuning&amp;FFOnlyOnTopRamp - boolean
+New Diag:
+- add 95 (0x5F): I_IFDACs_out (mV)
+- add 96 (0x60): Q_IFDACs_out (mV)
+- add 97 (0x61): VCXO_Powered (boolean)
+- add 97 (0x62): VCXO_Ref (boolean)
+- add 97 (0x63): VCXO_lock (boolean)
+- add 539 (0x21b): TRG5Hz (boolean)</t>
   </si>
 </sst>
 </file>
@@ -762,7 +777,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -773,8 +788,8 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,7 +1100,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>59</v>
       </c>
@@ -1099,7 +1114,7 @@
         <v>0.91388888888888886</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>62</v>
@@ -1108,12 +1123,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="11"/>
     </row>

--- a/doc/FPGA Program Version.xlsx
+++ b/doc/FPGA Program Version.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angela Salom\Dropbox\CELLS\Diamond\5.- FPGA Programming\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="300" windowWidth="9360" windowHeight="9585"/>
   </bookViews>
   <sheets>
     <sheet name="FPGA Version Advanced Perseus" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Version</t>
   </si>
@@ -357,6 +362,25 @@
 - add 97 (0x62): VCXO_Ref (boolean)
 - add 97 (0x63): VCXO_lock (boolean)
 - add 539 (0x21b): TRG5Hz (boolean)</t>
+  </si>
+  <si>
+    <t>Bit Files\Perseus_LLRFLDLS_V14.bit</t>
+  </si>
+  <si>
+    <t>PersDLSV15</t>
+  </si>
+  <si>
+    <t>2016-10.27.00</t>
+  </si>
+  <si>
+    <t>COMPILATION DONE FOR FPGA LX240, NOT FOR LX550. 
+When recompiling project for this FPGA, got a timing constraint error</t>
+  </si>
+  <si>
+    <t>-LookRef offset  corrected
+- closing loops of automatic startup at 0º corrected
+- Auto STOP when ramping enable corrected
+- Averaging of slow diagnostics reduced from 4096 samples to 256 samples and removed diagnostics not shown in IOC to make easier routing and easier to meet timing constraints</t>
   </si>
 </sst>
 </file>
@@ -777,7 +801,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -787,9 +811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,20 +1154,34 @@
       <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="2">
+        <v>42670</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.40138888888888885</v>
+      </c>
       <c r="E16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="F16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="12"/>
     </row>
@@ -1338,6 +1376,7 @@
     <hyperlink ref="G12" r:id="rId7"/>
     <hyperlink ref="G14" r:id="rId8"/>
     <hyperlink ref="G15" r:id="rId9"/>
+    <hyperlink ref="G16" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/FPGA Program Version.xlsx
+++ b/doc/FPGA Program Version.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>Version</t>
   </si>
@@ -370,9 +370,6 @@
     <t>PersDLSV15</t>
   </si>
   <si>
-    <t>2016-10.27.00</t>
-  </si>
-  <si>
     <t>COMPILATION DONE FOR FPGA LX240, NOT FOR LX550. 
 When recompiling project for this FPGA, got a timing constraint error</t>
   </si>
@@ -381,6 +378,27 @@
 - closing loops of automatic startup at 0º corrected
 - Auto STOP when ramping enable corrected
 - Averaging of slow diagnostics reduced from 4096 samples to 256 samples and removed diagnostics not shown in IOC to make easier routing and easier to meet timing constraints</t>
+  </si>
+  <si>
+    <t>PersDLSV16</t>
+  </si>
+  <si>
+    <t>2016.10.27.02</t>
+  </si>
+  <si>
+    <t>2016-10.28.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong averaging of diag signals </t>
+  </si>
+  <si>
+    <t>- Averaging for slow diagnostics corrected</t>
+  </si>
+  <si>
+    <t>Bit Files\Perseus_LLRFLDLS_V16.bit</t>
+  </si>
+  <si>
+    <t>Bit Files\Perseus_LLRFLDLS_V15.bit</t>
   </si>
 </sst>
 </file>
@@ -811,9 +829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1182,7 @@
         <v>66</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>67</v>
@@ -1175,24 +1193,40 @@
         <v>68</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
+      <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="2">
+        <v>42671</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -1377,6 +1411,8 @@
     <hyperlink ref="G14" r:id="rId8"/>
     <hyperlink ref="G15" r:id="rId9"/>
     <hyperlink ref="G16" r:id="rId10"/>
+    <hyperlink ref="G18" r:id="rId11"/>
+    <hyperlink ref="G17" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/FPGA Program Version.xlsx
+++ b/doc/FPGA Program Version.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angela Salom\Dropbox\CELLS\Diamond\5.- FPGA Programming\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="9360" windowHeight="9585"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="9360" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="FPGA Version Advanced Perseus" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>Version</t>
   </si>
@@ -399,6 +394,151 @@
   </si>
   <si>
     <t>Bit Files\Perseus_LLRFLDLS_V15.bit</t>
+  </si>
+  <si>
+    <t>wrong IQ demodulation of FwCav Signal, but simulations shown demodulation all right</t>
+  </si>
+  <si>
+    <t>PersDLSV17</t>
+  </si>
+  <si>
+    <t>2016.11.07.00</t>
+  </si>
+  <si>
+    <t>- Instantiation of Cavity B removed</t>
+  </si>
+  <si>
+    <t>still wrong IQ demodulation of FwCav signal</t>
+  </si>
+  <si>
+    <t>Bit Files\Perseus_LLRFLDLS_V17.bit</t>
+  </si>
+  <si>
+    <t>PersDLSV18</t>
+  </si>
+  <si>
+    <t>2016.11.08.00</t>
+  </si>
+  <si>
+    <t>Bit Files\Perseus_LLRFLDLS_V18.bit</t>
+  </si>
+  <si>
+    <t>PersDLSV19</t>
+  </si>
+  <si>
+    <t>2016.11.09.00</t>
+  </si>
+  <si>
+    <t>Recompilation of FPGA V13 with following modifications:
+--- Bugs solved:
+- closing loops of automatic startup at 0º corrected
+- Auto STOP when ramping enable corrected
+- Removed 1.6 factor of PI Limit of Amp Polar Loop
+- FwMin_FastIQ
+--- New settings:
+- add 125: FwMinAmp&amp;PhLoops - mV
+- add 316: Tuning&amp;FFOnlyOnTopRamp - boolean
+---New Diag:
+- add 97 (0x61): VCXO_Powered (boolean)
+- add 97 (0x62): VCXO_Ref (boolean)
+- add 97 (0x63): VCXO_lock (boolean)
+- add 539 (0x21b): TRG5Hz (boolean)
+--- STILL PENDING:
+- Debugging of phase latency compensation
+- LookRef offset
+- add 95 (0x5F): I_IFDACs_out (mV)
+- add 96 (0x60): Q_IFDACs_out (mV)</t>
+  </si>
+  <si>
+    <t>- Bugs checked and solved
+- NEW BUG: RFOnState_Delay always '1'
+PENDING:
+- check phase latency compensation and FastIQ Loops
+- Check Diagnostics of TRG5Hz</t>
+  </si>
+  <si>
+    <t>- LookRef offset corrected.
+- Added RFOnState_counter diag signal at add 0x19A
+- RFOnState_Delay: Logic of this signal simplified
+- TRG5Hz: Logic of this signal simplified
+- Moving average of diag signals: Averaging reduced from 4096 samples to 256 to relax timing constraints (with 4096 samples averaging, timing constraints were not me and with 1024 samples averaging compilation got stucked at Phase 4 of routing)
+- Slow Diag of not filtered and not latched signals removed</t>
+  </si>
+  <si>
+    <t>Bit Files\Perseus_LLRFLDLS_V19.bit</t>
+  </si>
+  <si>
+    <t>persDLSV20</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OK: RFOnState_Delay OK
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOK:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Again, wrong IQ Demodulation for Vcav and FwCav. LookRef Module changed back to original - kept wrong offset</t>
+    </r>
+  </si>
+  <si>
+    <t>- LookRef offset taken from V18
+- Slow diagnostics: averaging of samples increased from 256 to 4096 samples</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Wrong IQ Demodulation for Vcav and FwCav. LookRef Module changed back to original - kept wrong offset</t>
+    </r>
+  </si>
+  <si>
+    <t>Bit Files\Perseus_LLRFLDLS_V20.bit</t>
+  </si>
+  <si>
+    <t>persDLSV21</t>
+  </si>
+  <si>
+    <t>2016.11.12.00</t>
+  </si>
+  <si>
+    <t>216.11.14.00</t>
+  </si>
+  <si>
+    <t>compilation based on V18 and RFOnState_Delay logic solved</t>
   </si>
 </sst>
 </file>
@@ -819,7 +959,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -829,9 +969,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,53 +1363,119 @@
       <c r="E18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="G18" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="11"/>
+      <c r="A19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="7">
+        <v>42682</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.18680555555555556</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="300" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="2">
+        <v>42682</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="7">
+        <v>42684</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="2">
+        <v>42688</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.24166666666666667</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="7">
+        <v>42688</v>
+      </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="F23" s="9"/>
       <c r="G23" s="12"/>
     </row>
@@ -1413,7 +1619,12 @@
     <hyperlink ref="G16" r:id="rId10"/>
     <hyperlink ref="G18" r:id="rId11"/>
     <hyperlink ref="G17" r:id="rId12"/>
+    <hyperlink ref="G19" r:id="rId13"/>
+    <hyperlink ref="G20" r:id="rId14"/>
+    <hyperlink ref="G21" r:id="rId15"/>
+    <hyperlink ref="G22" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/doc/FPGA Program Version.xlsx
+++ b/doc/FPGA Program Version.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>Version</t>
   </si>
@@ -535,10 +535,19 @@
     <t>2016.11.12.00</t>
   </si>
   <si>
-    <t>216.11.14.00</t>
-  </si>
-  <si>
     <t>compilation based on V18 and RFOnState_Delay logic solved</t>
+  </si>
+  <si>
+    <t>2016.11.14.00</t>
+  </si>
+  <si>
+    <t>PersDLSV22</t>
+  </si>
+  <si>
+    <t>2017.03.22.00</t>
+  </si>
+  <si>
+    <t>compilation based on V18 and Error of FastPI implemented using signals instead of variables</t>
   </si>
 </sst>
 </file>
@@ -959,7 +968,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -969,9 +978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,24 +1476,34 @@
         <v>98</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" s="7">
         <v>42688</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="8">
+        <v>0.22500000000000001</v>
+      </c>
       <c r="E23" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="2">
+        <v>42816</v>
+      </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="11"/>
     </row>
